--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.11142111</v>
       </c>
       <c r="G2" t="n">
-        <v>0.11142111</v>
+        <v>6.40288149</v>
       </c>
       <c r="H2" t="n">
-        <v>6.40287942</v>
+        <v>373.98178118</v>
       </c>
       <c r="I2" t="n">
         <v>7.373203043665835</v>
@@ -548,10 +548,10 @@
         <v>0.01734967871804892</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01734967871804892</v>
+        <v>0.5502426597222885</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5502350487847668</v>
+        <v>55.91611202929847</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.07670151</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07670151</v>
+        <v>6.78317677</v>
       </c>
       <c r="H3" t="n">
-        <v>6.783172459999999</v>
+        <v>610.8127203800001</v>
       </c>
       <c r="I3" t="n">
         <v>11.91361566604523</v>
@@ -595,10 +595,10 @@
         <v>0.01149236735086497</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01149236735086497</v>
+        <v>0.6792581408243431</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6792480568228709</v>
+        <v>114.4994539192471</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.18660024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09330029000000001</v>
+        <v>2.53737894</v>
       </c>
       <c r="H4" t="n">
-        <v>2.53737428</v>
+        <v>71.83620431</v>
       </c>
       <c r="I4" t="n">
         <v>5.666921386255327</v>
@@ -642,10 +642,10 @@
         <v>0.03669149879503734</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01834585861561797</v>
+        <v>0.3919814959048554</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3919795059550568</v>
+        <v>21.28889590035775</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.11951621</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05975829000000001</v>
+        <v>2.79238079</v>
       </c>
       <c r="H5" t="n">
-        <v>2.79237367</v>
+        <v>134.33426993</v>
       </c>
       <c r="I5" t="n">
         <v>8.327729286850952</v>
@@ -689,10 +689,10 @@
         <v>0.0221001546413384</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01105000032049696</v>
+        <v>0.3614862467633796</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3614806538307756</v>
+        <v>33.534404364962</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.23574164</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05893542000000001</v>
+        <v>0.8456443100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.84564384</v>
+        <v>12.93354327</v>
       </c>
       <c r="I6" t="n">
         <v>3.751604795089501</v>
@@ -736,10 +736,10 @@
         <v>0.06326126338570512</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01581531724256845</v>
+        <v>0.2371911856015121</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2371913931462039</v>
+        <v>6.212888359056365</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.16292624</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04073146</v>
+        <v>1.00181138</v>
       </c>
       <c r="H7" t="n">
-        <v>1.00181365</v>
+        <v>25.66063576</v>
       </c>
       <c r="I7" t="n">
         <v>5.225260026289825</v>
@@ -783,10 +783,10 @@
         <v>0.03710943644055155</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009277378553299484</v>
+        <v>0.1950750737072204</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1950751066415413</v>
+        <v>8.607412685903103</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.27131443</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04521913</v>
+        <v>0.41613435</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4161334</v>
+        <v>4.070704539999999</v>
       </c>
       <c r="I8" t="n">
         <v>2.443510946516456</v>
@@ -830,10 +830,10 @@
         <v>0.08210360423089114</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01368395425113103</v>
+        <v>0.1450668131519251</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1450651722324653</v>
+        <v>2.221703299735914</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.17286799</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02881132</v>
+        <v>0.48189639</v>
       </c>
       <c r="H9" t="n">
-        <v>0.48189687</v>
+        <v>8.538840759999999</v>
       </c>
       <c r="I9" t="n">
         <v>4.257405371878569</v>
@@ -877,10 +877,10 @@
         <v>0.04436952219214739</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007394831004369416</v>
+        <v>0.1188358353462049</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1188365292820137</v>
+        <v>3.785142394448388</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.24731958</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03091494</v>
+        <v>0.2117835</v>
       </c>
       <c r="H10" t="n">
-        <v>0.21178381</v>
+        <v>1.53689199</v>
       </c>
       <c r="I10" t="n">
         <v>1.73841913849943</v>
@@ -924,10 +924,10 @@
         <v>0.08011993747379241</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01001512557768183</v>
+        <v>0.09005140704320205</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09005127109602568</v>
+        <v>0.970451232026567</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.1563644</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01954552</v>
+        <v>0.25371109</v>
       </c>
       <c r="H11" t="n">
-        <v>0.25371119</v>
+        <v>3.546879979999999</v>
       </c>
       <c r="I11" t="n">
         <v>3.783582891849933</v>
@@ -971,10 +971,10 @@
         <v>0.04286552614831611</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005358229311157834</v>
+        <v>0.07577188831599005</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07577049274522871</v>
+        <v>2.081288556471711</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.22296463</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02229633</v>
+        <v>0.12865917</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12866016</v>
+        <v>0.7916509599999999</v>
       </c>
       <c r="I12" t="n">
         <v>1.490072587599784</v>
@@ -1018,10 +1018,10 @@
         <v>0.07602515965628658</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007602567096550846</v>
+        <v>0.06378650906225743</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06378606553104157</v>
+        <v>0.5961162616030753</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.13912661</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01391271</v>
+        <v>0.14540667</v>
       </c>
       <c r="H13" t="n">
-        <v>0.14540611</v>
+        <v>1.63893001</v>
       </c>
       <c r="I13" t="n">
         <v>3.019750634389186</v>
@@ -1065,10 +1065,10 @@
         <v>0.03938322665233829</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003938269737387781</v>
+        <v>0.04765479951408701</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04765513266834474</v>
+        <v>0.9543881149747753</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>58.421</v>
+        <v>57.433</v>
       </c>
       <c r="D2" t="n">
-        <v>58.421</v>
+        <v>57.433</v>
       </c>
       <c r="E2" t="n">
-        <v>2.94122374</v>
+        <v>2.99337846</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11142111</v>
+        <v>0.01994631</v>
       </c>
       <c r="G2" t="n">
-        <v>6.40288149</v>
+        <v>1.13410404</v>
       </c>
       <c r="H2" t="n">
-        <v>373.98178118</v>
+        <v>65.52918533</v>
       </c>
       <c r="I2" t="n">
-        <v>7.373203043665835</v>
+        <v>7.424327015402246</v>
       </c>
       <c r="J2" t="n">
-        <v>7.373203043665835</v>
+        <v>7.424327015402246</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3918216010559735</v>
+        <v>0.4022620362848879</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01734967871804892</v>
+        <v>0.002377418011267749</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5502426597222885</v>
+        <v>0.1201558446513622</v>
       </c>
       <c r="N2" t="n">
-        <v>55.91611202929847</v>
+        <v>12.70321905575497</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>89.736</v>
+        <v>90.00700000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>89.736</v>
+        <v>90.00700000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1.91739599</v>
+        <v>1.9146389</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07670151</v>
+        <v>0.00759413</v>
       </c>
       <c r="G3" t="n">
-        <v>6.78317677</v>
+        <v>0.6693451199999999</v>
       </c>
       <c r="H3" t="n">
-        <v>610.8127203800001</v>
+        <v>60.16411374</v>
       </c>
       <c r="I3" t="n">
-        <v>11.91361566604523</v>
+        <v>12.46171116842487</v>
       </c>
       <c r="J3" t="n">
-        <v>11.91361566604523</v>
+        <v>12.46171116842487</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2619929481594976</v>
+        <v>0.2734552175076793</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01149236735086497</v>
+        <v>0.001578775086538255</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6792581408243431</v>
+        <v>0.09240722003230969</v>
       </c>
       <c r="N3" t="n">
-        <v>114.4994539192471</v>
+        <v>11.35750868439249</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.954</v>
+        <v>27.766</v>
       </c>
       <c r="D4" t="n">
-        <v>55.882</v>
+        <v>55.508</v>
       </c>
       <c r="E4" t="n">
-        <v>3.15244247</v>
+        <v>3.176143</v>
       </c>
       <c r="F4" t="n">
-        <v>0.18660024</v>
+        <v>0.03767816</v>
       </c>
       <c r="G4" t="n">
-        <v>2.53737894</v>
+        <v>0.51135439</v>
       </c>
       <c r="H4" t="n">
-        <v>71.83620431</v>
+        <v>14.47240166</v>
       </c>
       <c r="I4" t="n">
-        <v>5.666921386255327</v>
+        <v>5.787463929800231</v>
       </c>
       <c r="J4" t="n">
-        <v>11.34454824022423</v>
+        <v>11.5715096610527</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6551305560596927</v>
+        <v>0.6555328995299673</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03669149879503734</v>
+        <v>0.005634863361209347</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3919814959048554</v>
+        <v>0.07158144819821721</v>
       </c>
       <c r="N4" t="n">
-        <v>21.28889590035775</v>
+        <v>4.634190969150257</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>47.826</v>
+        <v>48.055</v>
       </c>
       <c r="D5" t="n">
-        <v>93.66</v>
+        <v>94.18899999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8502017</v>
+        <v>1.8370735</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11951621</v>
+        <v>0.01204469</v>
       </c>
       <c r="G5" t="n">
-        <v>2.79238079</v>
+        <v>0.28201036</v>
       </c>
       <c r="H5" t="n">
-        <v>134.33426993</v>
+        <v>13.55966388</v>
       </c>
       <c r="I5" t="n">
-        <v>8.327729286850952</v>
+        <v>7.903191471515506</v>
       </c>
       <c r="J5" t="n">
-        <v>14.95018086539116</v>
+        <v>14.53301370973989</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2956567250592869</v>
+        <v>0.2839911382715432</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0221001546413384</v>
+        <v>0.002551167803391432</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3614862467633796</v>
+        <v>0.0384626357549716</v>
       </c>
       <c r="N5" t="n">
-        <v>33.534404364962</v>
+        <v>2.963306803831891</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14.756</v>
+        <v>14.489</v>
       </c>
       <c r="D6" t="n">
-        <v>58.978</v>
+        <v>57.899</v>
       </c>
       <c r="E6" t="n">
-        <v>3.05277461</v>
+        <v>3.12849664</v>
       </c>
       <c r="F6" t="n">
-        <v>0.23574164</v>
+        <v>0.06343076</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8456443100000001</v>
+        <v>0.22269545</v>
       </c>
       <c r="H6" t="n">
-        <v>12.93354327</v>
+        <v>3.35020085</v>
       </c>
       <c r="I6" t="n">
-        <v>3.751604795089501</v>
+        <v>3.851585869964957</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00161873147577</v>
+        <v>15.38946505355643</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7691440996159444</v>
+        <v>0.827824253644596</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06326126338570512</v>
+        <v>0.009974247261364179</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2371911856015121</v>
+        <v>0.03998941746145356</v>
       </c>
       <c r="N6" t="n">
-        <v>6.212888359056365</v>
+        <v>1.446412518733341</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.281</v>
+        <v>25.459</v>
       </c>
       <c r="D7" t="n">
-        <v>93.52800000000001</v>
+        <v>93.842</v>
       </c>
       <c r="E7" t="n">
-        <v>1.86241174</v>
+        <v>1.86178314</v>
       </c>
       <c r="F7" t="n">
-        <v>0.16292624</v>
+        <v>0.01908867</v>
       </c>
       <c r="G7" t="n">
-        <v>1.00181138</v>
+        <v>0.11673369</v>
       </c>
       <c r="H7" t="n">
-        <v>25.66063576</v>
+        <v>2.99794069</v>
       </c>
       <c r="I7" t="n">
-        <v>5.225260026289825</v>
+        <v>5.876976931880697</v>
       </c>
       <c r="J7" t="n">
-        <v>16.18941979545015</v>
+        <v>16.99835227249924</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3301064286189955</v>
+        <v>0.3478086949497137</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03710943644055155</v>
+        <v>0.005231700509520908</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1950750737072204</v>
+        <v>0.0240389042554294</v>
       </c>
       <c r="N7" t="n">
-        <v>8.607412685903103</v>
+        <v>1.057252794355634</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9.385</v>
+        <v>9.351000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>56.214</v>
+        <v>56.026</v>
       </c>
       <c r="E8" t="n">
-        <v>3.19849113</v>
+        <v>3.20859392</v>
       </c>
       <c r="F8" t="n">
-        <v>0.27131443</v>
+        <v>0.09406307999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.41613435</v>
+        <v>0.14364999</v>
       </c>
       <c r="H8" t="n">
-        <v>4.070704539999999</v>
+        <v>1.40160228</v>
       </c>
       <c r="I8" t="n">
-        <v>2.443510946516456</v>
+        <v>2.436336334485601</v>
       </c>
       <c r="J8" t="n">
-        <v>14.67029043411961</v>
+        <v>14.60652849498041</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7831420678884002</v>
+        <v>0.7848792580316554</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08210360423089114</v>
+        <v>0.01451697287367497</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1450668131519251</v>
+        <v>0.03151001155391771</v>
       </c>
       <c r="N8" t="n">
-        <v>2.221703299735914</v>
+        <v>0.6633873860143291</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17.275</v>
+        <v>17.314</v>
       </c>
       <c r="D9" t="n">
-        <v>88.268</v>
+        <v>88.161</v>
       </c>
       <c r="E9" t="n">
-        <v>1.98547842</v>
+        <v>1.9772961</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17286799</v>
+        <v>0.021473</v>
       </c>
       <c r="G9" t="n">
-        <v>0.48189639</v>
+        <v>0.05972508</v>
       </c>
       <c r="H9" t="n">
-        <v>8.538840759999999</v>
+        <v>1.05217963</v>
       </c>
       <c r="I9" t="n">
-        <v>4.257405371878569</v>
+        <v>4.177182405982872</v>
       </c>
       <c r="J9" t="n">
-        <v>16.84547256523087</v>
+        <v>15.50411095343607</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3835273681684761</v>
+        <v>0.3532137840572449</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04436952219214739</v>
+        <v>0.005968395105900759</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1188358353462049</v>
+        <v>0.01437331033699765</v>
       </c>
       <c r="N9" t="n">
-        <v>3.785142394448388</v>
+        <v>0.4332810593949307</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6.839</v>
+        <v>6.812</v>
       </c>
       <c r="D10" t="n">
-        <v>54.599</v>
+        <v>54.362</v>
       </c>
       <c r="E10" t="n">
-        <v>3.28494497</v>
+        <v>3.30291711</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24731958</v>
+        <v>0.11096264</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2117835</v>
+        <v>0.0934958</v>
       </c>
       <c r="H10" t="n">
-        <v>1.53689199</v>
+        <v>0.66820472</v>
       </c>
       <c r="I10" t="n">
-        <v>1.73841913849943</v>
+        <v>1.720353340339018</v>
       </c>
       <c r="J10" t="n">
-        <v>13.90365097772921</v>
+        <v>13.74954566543949</v>
       </c>
       <c r="K10" t="n">
-        <v>0.795263536203071</v>
+        <v>0.8189698617737049</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08011993747379241</v>
+        <v>0.0131133136096192</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09005140704320205</v>
+        <v>0.02169153087432216</v>
       </c>
       <c r="N10" t="n">
-        <v>0.970451232026567</v>
+        <v>0.3163854945162023</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13.396</v>
+        <v>13.272</v>
       </c>
       <c r="D11" t="n">
-        <v>82.779</v>
+        <v>81.985</v>
       </c>
       <c r="E11" t="n">
-        <v>2.11495167</v>
+        <v>2.13745123</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1563644</v>
+        <v>0.02152434</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25371109</v>
+        <v>0.03429336000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3.546879979999999</v>
+        <v>0.46782531</v>
       </c>
       <c r="I11" t="n">
-        <v>3.783582891849933</v>
+        <v>3.575024027443284</v>
       </c>
       <c r="J11" t="n">
-        <v>15.71391377366206</v>
+        <v>15.65118956292891</v>
       </c>
       <c r="K11" t="n">
-        <v>0.399856002964089</v>
+        <v>0.413616642121212</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04286552614831611</v>
+        <v>0.007111314545072448</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07577188831599005</v>
+        <v>0.01086492314124979</v>
       </c>
       <c r="N11" t="n">
-        <v>2.081288556471711</v>
+        <v>0.2375206677700318</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.648</v>
+        <v>5.677</v>
       </c>
       <c r="D12" t="n">
-        <v>56.229</v>
+        <v>56.619</v>
       </c>
       <c r="E12" t="n">
-        <v>3.20841419</v>
+        <v>3.18791617</v>
       </c>
       <c r="F12" t="n">
-        <v>0.22296463</v>
+        <v>0.1287425</v>
       </c>
       <c r="G12" t="n">
-        <v>0.12865917</v>
+        <v>0.07289238999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7916509599999999</v>
+        <v>0.43940232</v>
       </c>
       <c r="I12" t="n">
-        <v>1.490072587599784</v>
+        <v>1.476770751285335</v>
       </c>
       <c r="J12" t="n">
-        <v>14.78022374708901</v>
+        <v>14.75573009276635</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8251420677408827</v>
+        <v>0.8301048504131936</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07602515965628658</v>
+        <v>0.01459983195256175</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06378650906225743</v>
+        <v>0.01968038161745113</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5961162616030753</v>
+        <v>0.2288489329110191</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10.715</v>
+        <v>10.875</v>
       </c>
       <c r="D13" t="n">
-        <v>75.508</v>
+        <v>75.901</v>
       </c>
       <c r="E13" t="n">
-        <v>2.31892486</v>
+        <v>2.31650139</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13912661</v>
+        <v>0.02081715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.14540667</v>
+        <v>0.02178227</v>
       </c>
       <c r="H13" t="n">
-        <v>1.63893001</v>
+        <v>0.2474617</v>
       </c>
       <c r="I13" t="n">
-        <v>3.019750634389186</v>
+        <v>3.285143401309472</v>
       </c>
       <c r="J13" t="n">
-        <v>14.24959602890506</v>
+        <v>15.46616957754574</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4431373888389101</v>
+        <v>0.4579194641580796</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03938322665233829</v>
+        <v>0.007711707476928162</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04765479951408701</v>
+        <v>0.008324527680788155</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9543881149747753</v>
+        <v>0.1503671309960857</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>57.433</v>
+        <v>55.687</v>
       </c>
       <c r="D2" t="n">
-        <v>57.433</v>
+        <v>55.687</v>
       </c>
       <c r="E2" t="n">
-        <v>2.99337846</v>
+        <v>3.08659142</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01994631</v>
+        <v>0.01866754</v>
       </c>
       <c r="G2" t="n">
-        <v>1.13410404</v>
+        <v>1.02818196</v>
       </c>
       <c r="H2" t="n">
-        <v>65.52918533</v>
+        <v>57.55636339</v>
       </c>
       <c r="I2" t="n">
-        <v>7.424327015402246</v>
+        <v>7.186980150500186</v>
       </c>
       <c r="J2" t="n">
-        <v>7.424327015402246</v>
+        <v>7.186980150500186</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4022620362848879</v>
+        <v>0.4096919970236285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002377418011267749</v>
+        <v>0.002414330495218113</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1201558446513622</v>
+        <v>0.1115499255062003</v>
       </c>
       <c r="N2" t="n">
-        <v>12.70321905575497</v>
+        <v>11.15901585739432</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>90.00700000000001</v>
+        <v>89.771</v>
       </c>
       <c r="D3" t="n">
-        <v>90.00700000000001</v>
+        <v>89.771</v>
       </c>
       <c r="E3" t="n">
-        <v>1.9146389</v>
+        <v>1.91476307</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00759413</v>
+        <v>0.00684953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6693451199999999</v>
+        <v>0.60273417</v>
       </c>
       <c r="H3" t="n">
-        <v>60.16411374</v>
+        <v>53.93090927</v>
       </c>
       <c r="I3" t="n">
-        <v>12.46171116842487</v>
+        <v>11.80660641145266</v>
       </c>
       <c r="J3" t="n">
-        <v>12.46171116842487</v>
+        <v>11.80660641145266</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2734552175076793</v>
+        <v>0.2492017269679303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001578775086538255</v>
+        <v>0.001380181430059063</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09240722003230969</v>
+        <v>0.08037549784832107</v>
       </c>
       <c r="N3" t="n">
-        <v>11.35750868439249</v>
+        <v>9.09044961075559</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.766</v>
+        <v>27.741</v>
       </c>
       <c r="D4" t="n">
-        <v>55.508</v>
+        <v>55.457</v>
       </c>
       <c r="E4" t="n">
-        <v>3.176143</v>
+        <v>3.18733622</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03767816</v>
+        <v>0.03378314</v>
       </c>
       <c r="G4" t="n">
-        <v>0.51135439</v>
+        <v>0.45638717</v>
       </c>
       <c r="H4" t="n">
-        <v>14.47240166</v>
+        <v>12.8867726</v>
       </c>
       <c r="I4" t="n">
-        <v>5.787463929800231</v>
+        <v>5.941146035590794</v>
       </c>
       <c r="J4" t="n">
-        <v>11.5715096610527</v>
+        <v>11.88020581851553</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6555328995299673</v>
+        <v>0.6784729570128122</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005634863361209347</v>
+        <v>0.005410311859293771</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07158144819821721</v>
+        <v>0.06156511207588285</v>
       </c>
       <c r="N4" t="n">
-        <v>4.634190969150257</v>
+        <v>4.062709615798074</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>48.055</v>
+        <v>48.033</v>
       </c>
       <c r="D5" t="n">
-        <v>94.18899999999999</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8370735</v>
+        <v>1.8425729</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01204469</v>
+        <v>0.0109313</v>
       </c>
       <c r="G5" t="n">
-        <v>0.28201036</v>
+        <v>0.25438118</v>
       </c>
       <c r="H5" t="n">
-        <v>13.55966388</v>
+        <v>12.18384207</v>
       </c>
       <c r="I5" t="n">
-        <v>7.903191471515506</v>
+        <v>8.351626228505479</v>
       </c>
       <c r="J5" t="n">
-        <v>14.53301370973989</v>
+        <v>15.48933567069678</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2839911382715432</v>
+        <v>0.3016741180042857</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002551167803391432</v>
+        <v>0.002570304373916555</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0384626357549716</v>
+        <v>0.03720237371213586</v>
       </c>
       <c r="N5" t="n">
-        <v>2.963306803831891</v>
+        <v>2.590364271959498</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14.489</v>
+        <v>14.436</v>
       </c>
       <c r="D6" t="n">
-        <v>57.899</v>
+        <v>57.699</v>
       </c>
       <c r="E6" t="n">
-        <v>3.12849664</v>
+        <v>3.13267109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06343076</v>
+        <v>0.05759362</v>
       </c>
       <c r="G6" t="n">
-        <v>0.22269545</v>
+        <v>0.20001618</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35020085</v>
+        <v>2.96714329</v>
       </c>
       <c r="I6" t="n">
-        <v>3.851585869964957</v>
+        <v>3.768568177186941</v>
       </c>
       <c r="J6" t="n">
-        <v>15.38946505355643</v>
+        <v>15.07360648990853</v>
       </c>
       <c r="K6" t="n">
-        <v>0.827824253644596</v>
+        <v>0.8157236465990996</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009974247261364179</v>
+        <v>0.01089640248351183</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03998941746145356</v>
+        <v>0.0329796359439366</v>
       </c>
       <c r="N6" t="n">
-        <v>1.446412518733341</v>
+        <v>1.153716206375176</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -750,43 +750,43 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9999777799999999</v>
       </c>
       <c r="C7" t="n">
-        <v>25.459</v>
+        <v>25.443</v>
       </c>
       <c r="D7" t="n">
-        <v>93.842</v>
+        <v>93.63500000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>1.86178314</v>
+        <v>1.86505701</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01908867</v>
+        <v>0.01612009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.11673369</v>
+        <v>0.09794596000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2.99794069</v>
+        <v>2.49143973</v>
       </c>
       <c r="I7" t="n">
-        <v>5.876976931880697</v>
+        <v>5.731981036832433</v>
       </c>
       <c r="J7" t="n">
-        <v>16.99835227249924</v>
+        <v>17.13883060522259</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3478086949497137</v>
+        <v>0.3389970062386963</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005231700509520908</v>
+        <v>0.004702166826556111</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0240389042554294</v>
+        <v>0.01990200645008284</v>
       </c>
       <c r="N7" t="n">
-        <v>1.057252794355634</v>
+        <v>0.7683789732638323</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9.351000000000001</v>
+        <v>9.359</v>
       </c>
       <c r="D8" t="n">
-        <v>56.026</v>
+        <v>56.07</v>
       </c>
       <c r="E8" t="n">
-        <v>3.20859392</v>
+        <v>3.24010606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09406307999999999</v>
+        <v>0.08475283</v>
       </c>
       <c r="G8" t="n">
-        <v>0.14364999</v>
+        <v>0.12835513</v>
       </c>
       <c r="H8" t="n">
-        <v>1.40160228</v>
+        <v>1.25425688</v>
       </c>
       <c r="I8" t="n">
-        <v>2.436336334485601</v>
+        <v>2.686137437722488</v>
       </c>
       <c r="J8" t="n">
-        <v>14.60652849498041</v>
+        <v>16.10150174233318</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7848792580316554</v>
+        <v>0.8534073801664708</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01451697287367497</v>
+        <v>0.01432791601274827</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03151001155391771</v>
+        <v>0.02789220441001302</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6633873860143291</v>
+        <v>0.6122301681147503</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17.314</v>
+        <v>17.421</v>
       </c>
       <c r="D9" t="n">
-        <v>88.161</v>
+        <v>88.746</v>
       </c>
       <c r="E9" t="n">
-        <v>1.9772961</v>
+        <v>1.96655922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.021473</v>
+        <v>0.01782611</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05972508</v>
+        <v>0.049275</v>
       </c>
       <c r="H9" t="n">
-        <v>1.05217963</v>
+        <v>0.86699929</v>
       </c>
       <c r="I9" t="n">
-        <v>4.177182405982872</v>
+        <v>4.495327236916904</v>
       </c>
       <c r="J9" t="n">
-        <v>15.50411095343607</v>
+        <v>16.17352982706827</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3532137840572449</v>
+        <v>0.3529428848132966</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005968395105900759</v>
+        <v>0.005597369874987485</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01437331033699765</v>
+        <v>0.01204148100795184</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4332810593949307</v>
+        <v>0.3718073392068585</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6.812</v>
+        <v>7.042</v>
       </c>
       <c r="D10" t="n">
-        <v>54.362</v>
+        <v>56.2</v>
       </c>
       <c r="E10" t="n">
-        <v>3.30291711</v>
+        <v>3.19587531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.11096264</v>
+        <v>0.10072949</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0934958</v>
+        <v>0.08720381999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.66820472</v>
+        <v>0.6403016699999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1.720353340339018</v>
+        <v>1.77859478223664</v>
       </c>
       <c r="J10" t="n">
-        <v>13.74954566543949</v>
+        <v>14.19131401221865</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8189698617737049</v>
+        <v>0.7936199990741376</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0131133136096192</v>
+        <v>0.01376534630144475</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02169153087432216</v>
+        <v>0.01922850157137265</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3163854945162023</v>
+        <v>0.2870390857682448</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13.272</v>
+        <v>13.122</v>
       </c>
       <c r="D11" t="n">
-        <v>81.985</v>
+        <v>80.98399999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>2.13745123</v>
+        <v>2.15736031</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02152434</v>
+        <v>0.01699851</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03429336000000001</v>
+        <v>0.02655863</v>
       </c>
       <c r="H11" t="n">
-        <v>0.46782531</v>
+        <v>0.35377627</v>
       </c>
       <c r="I11" t="n">
-        <v>3.575024027443284</v>
+        <v>3.395385787306745</v>
       </c>
       <c r="J11" t="n">
-        <v>15.65118956292891</v>
+        <v>14.81780386262793</v>
       </c>
       <c r="K11" t="n">
-        <v>0.413616642121212</v>
+        <v>0.39833869430396</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007111314545072448</v>
+        <v>0.006140531899755258</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01086492314124979</v>
+        <v>0.008355805724908426</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2375206677700318</v>
+        <v>0.1625674391459051</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.677</v>
+        <v>5.703</v>
       </c>
       <c r="D12" t="n">
-        <v>56.619</v>
+        <v>56.846</v>
       </c>
       <c r="E12" t="n">
-        <v>3.18791617</v>
+        <v>3.18929553</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1287425</v>
+        <v>0.1163153</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07289238999999999</v>
+        <v>0.06571637000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.43940232</v>
+        <v>0.39689023</v>
       </c>
       <c r="I12" t="n">
-        <v>1.476770751285335</v>
+        <v>1.532690490653654</v>
       </c>
       <c r="J12" t="n">
-        <v>14.75573009276635</v>
+        <v>15.29209377855538</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8301048504131936</v>
+        <v>0.8581139051045921</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01459983195256175</v>
+        <v>0.01456758793102441</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01968038161745113</v>
+        <v>0.01706750892145318</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2288489329110191</v>
+        <v>0.2031138917855777</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10.875</v>
+        <v>10.654</v>
       </c>
       <c r="D13" t="n">
-        <v>75.901</v>
+        <v>74.155</v>
       </c>
       <c r="E13" t="n">
-        <v>2.31650139</v>
+        <v>2.35904075</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02081715</v>
+        <v>0.01551286</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02178227</v>
+        <v>0.01572982</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2474617</v>
+        <v>0.17231472</v>
       </c>
       <c r="I13" t="n">
-        <v>3.285143401309472</v>
+        <v>3.126989296761673</v>
       </c>
       <c r="J13" t="n">
-        <v>15.46616957754574</v>
+        <v>14.04607657914719</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4579194641580796</v>
+        <v>0.4366621609383309</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007711707476928162</v>
+        <v>0.006359856239868303</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008324527680788155</v>
+        <v>0.006103465512219993</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1503671309960857</v>
+        <v>0.09866405602686965</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>55.687</v>
+        <v>54.069</v>
       </c>
       <c r="D2" t="n">
-        <v>55.687</v>
+        <v>54.069</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08659142</v>
+        <v>3.17825061</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01866754</v>
+        <v>0.00133787</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02818196</v>
+        <v>0.07169933000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>57.55636339</v>
+        <v>3.90818598</v>
       </c>
       <c r="I2" t="n">
-        <v>7.186980150500186</v>
+        <v>7.01023411751579</v>
       </c>
       <c r="J2" t="n">
-        <v>7.186980150500186</v>
+        <v>7.01023411751579</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4096919970236285</v>
+        <v>0.4138050426220387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002414330495218113</v>
+        <v>0.0001462147114412289</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1115499255062003</v>
+        <v>0.007553342586917089</v>
       </c>
       <c r="N2" t="n">
-        <v>11.15901585739432</v>
+        <v>0.8345269440073902</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>89.771</v>
+        <v>90.059</v>
       </c>
       <c r="D3" t="n">
-        <v>89.771</v>
+        <v>90.059</v>
       </c>
       <c r="E3" t="n">
-        <v>1.91476307</v>
+        <v>1.91107263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00684953</v>
+        <v>0.0009027800000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.60273417</v>
+        <v>0.08052294</v>
       </c>
       <c r="H3" t="n">
-        <v>53.93090927</v>
+        <v>7.314089279999999</v>
       </c>
       <c r="I3" t="n">
-        <v>11.80660641145266</v>
+        <v>12.08642215879458</v>
       </c>
       <c r="J3" t="n">
-        <v>11.80660641145266</v>
+        <v>12.08642215879458</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2492017269679303</v>
+        <v>0.2625993418524205</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001380181430059063</v>
+        <v>0.0001330374780675377</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08037549784832107</v>
+        <v>0.01143470110434662</v>
       </c>
       <c r="N3" t="n">
-        <v>9.09044961075559</v>
+        <v>1.735984363536182</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.741</v>
+        <v>27.046</v>
       </c>
       <c r="D4" t="n">
-        <v>55.457</v>
+        <v>54.078</v>
       </c>
       <c r="E4" t="n">
-        <v>3.18733622</v>
+        <v>3.25338949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03378314</v>
+        <v>0.00252739</v>
       </c>
       <c r="G4" t="n">
-        <v>0.45638717</v>
+        <v>0.03362475000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>12.8867726</v>
+        <v>0.93228702</v>
       </c>
       <c r="I4" t="n">
-        <v>5.941146035590794</v>
+        <v>5.543339481992115</v>
       </c>
       <c r="J4" t="n">
-        <v>11.88020581851553</v>
+        <v>11.08777952769872</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6784729570128122</v>
+        <v>0.6504573511170907</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005410311859293771</v>
+        <v>0.0003879244427375946</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06156511207588285</v>
+        <v>0.005954293253245564</v>
       </c>
       <c r="N4" t="n">
-        <v>4.062709615798074</v>
+        <v>0.341152542880503</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>48.033</v>
+        <v>48.528</v>
       </c>
       <c r="D5" t="n">
-        <v>94.18000000000001</v>
+        <v>94.90900000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8425729</v>
+        <v>1.83129985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0109313</v>
+        <v>0.00154295</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25438118</v>
+        <v>0.03694269</v>
       </c>
       <c r="H5" t="n">
-        <v>12.18384207</v>
+        <v>1.82836536</v>
       </c>
       <c r="I5" t="n">
-        <v>8.351626228505479</v>
+        <v>8.870394574081802</v>
       </c>
       <c r="J5" t="n">
-        <v>15.48933567069678</v>
+        <v>16.14848266842716</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3016741180042857</v>
+        <v>0.3064602012516939</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002570304373916555</v>
+        <v>0.0001991221914984544</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03720237371213586</v>
+        <v>0.005546277946782235</v>
       </c>
       <c r="N5" t="n">
-        <v>2.590364271959498</v>
+        <v>0.5994602327416799</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14.436</v>
+        <v>14.412</v>
       </c>
       <c r="D6" t="n">
-        <v>57.699</v>
+        <v>57.596</v>
       </c>
       <c r="E6" t="n">
-        <v>3.13267109</v>
+        <v>3.12679938</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05759362</v>
+        <v>0.00429857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.20001618</v>
+        <v>0.01526991</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96714329</v>
+        <v>0.23138585</v>
       </c>
       <c r="I6" t="n">
-        <v>3.768568177186941</v>
+        <v>3.686983841821096</v>
       </c>
       <c r="J6" t="n">
-        <v>15.07360648990853</v>
+        <v>14.72894177209367</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8157236465990996</v>
+        <v>0.7895720725144161</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01089640248351183</v>
+        <v>0.0005525712534054681</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0329796359439366</v>
+        <v>0.003552977165510445</v>
       </c>
       <c r="N6" t="n">
-        <v>1.153716206375176</v>
+        <v>0.1130356410103296</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -750,43 +750,43 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9999777799999999</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.443</v>
+        <v>25.316</v>
       </c>
       <c r="D7" t="n">
-        <v>93.63500000000001</v>
+        <v>93.711</v>
       </c>
       <c r="E7" t="n">
-        <v>1.86505701</v>
+        <v>1.85902356</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01612009</v>
+        <v>0.00289656</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09794596000000001</v>
+        <v>0.01808876</v>
       </c>
       <c r="H7" t="n">
-        <v>2.49143973</v>
+        <v>0.47248698</v>
       </c>
       <c r="I7" t="n">
-        <v>5.731981036832433</v>
+        <v>5.427116877090229</v>
       </c>
       <c r="J7" t="n">
-        <v>17.13883060522259</v>
+        <v>16.34682530945069</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3389970062386963</v>
+        <v>0.3285856557732036</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004702166826556111</v>
+        <v>0.0004357433173769148</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01990200645008284</v>
+        <v>0.003690057640171463</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7683789732638323</v>
+        <v>0.1946734041119848</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9.359</v>
+        <v>9.064</v>
       </c>
       <c r="D8" t="n">
-        <v>56.07</v>
+        <v>54.302</v>
       </c>
       <c r="E8" t="n">
-        <v>3.24010606</v>
+        <v>3.30350598</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08475283</v>
+        <v>0.006348029999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.12835513</v>
+        <v>0.00951017</v>
       </c>
       <c r="H8" t="n">
-        <v>1.25425688</v>
+        <v>0.09107359</v>
       </c>
       <c r="I8" t="n">
-        <v>2.686137437722488</v>
+        <v>2.335671072595488</v>
       </c>
       <c r="J8" t="n">
-        <v>16.10150174233318</v>
+        <v>14.01039211039745</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8534073801664708</v>
+        <v>0.7884226132480729</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01432791601274827</v>
+        <v>0.001053982304309611</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02789220441001302</v>
+        <v>0.002621400849453115</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6122301681147503</v>
+        <v>0.04945781042690956</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17.421</v>
+        <v>17.186</v>
       </c>
       <c r="D9" t="n">
-        <v>88.746</v>
+        <v>87.908</v>
       </c>
       <c r="E9" t="n">
-        <v>1.96655922</v>
+        <v>1.98769757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01782611</v>
+        <v>0.00395629</v>
       </c>
       <c r="G9" t="n">
-        <v>0.049275</v>
+        <v>0.01114935</v>
       </c>
       <c r="H9" t="n">
-        <v>0.86699929</v>
+        <v>0.19931739</v>
       </c>
       <c r="I9" t="n">
-        <v>4.495327236916904</v>
+        <v>4.144705367403404</v>
       </c>
       <c r="J9" t="n">
-        <v>16.17352982706827</v>
+        <v>16.17173648873432</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3529428848132966</v>
+        <v>0.367135147468479</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005597369874987485</v>
+        <v>0.0005622669116887282</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01204148100795184</v>
+        <v>0.002346620613948025</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3718073392068585</v>
+        <v>0.08966289475018573</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>7.042</v>
+        <v>6.952</v>
       </c>
       <c r="D10" t="n">
-        <v>56.2</v>
+        <v>55.473</v>
       </c>
       <c r="E10" t="n">
-        <v>3.19587531</v>
+        <v>3.24686919</v>
       </c>
       <c r="F10" t="n">
-        <v>0.10072949</v>
+        <v>0.00725225</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08720381999999999</v>
+        <v>0.0063133</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6403016699999999</v>
+        <v>0.04701933</v>
       </c>
       <c r="I10" t="n">
-        <v>1.77859478223664</v>
+        <v>1.849084939940595</v>
       </c>
       <c r="J10" t="n">
-        <v>14.19131401221865</v>
+        <v>14.73880943304117</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7936199990741376</v>
+        <v>0.8159965815573966</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01376534630144475</v>
+        <v>0.0008214411744629697</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01922850157137265</v>
+        <v>0.001860064447740924</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2870390857682448</v>
+        <v>0.02861437773330331</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13.122</v>
+        <v>13.327</v>
       </c>
       <c r="D11" t="n">
-        <v>80.98399999999999</v>
+        <v>82.93300000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>2.15736031</v>
+        <v>2.1126916</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01699851</v>
+        <v>0.004690980000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02655863</v>
+        <v>0.007679880000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.35377627</v>
+        <v>0.10770843</v>
       </c>
       <c r="I11" t="n">
-        <v>3.395385787306745</v>
+        <v>3.633631004143689</v>
       </c>
       <c r="J11" t="n">
-        <v>14.81780386262793</v>
+        <v>15.99544827022254</v>
       </c>
       <c r="K11" t="n">
-        <v>0.39833869430396</v>
+        <v>0.4027796196520463</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006140531899755258</v>
+        <v>0.000741127323278065</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008355805724908426</v>
+        <v>0.001869444947039097</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1625674391459051</v>
+        <v>0.05600667072591354</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.703</v>
+        <v>5.6</v>
       </c>
       <c r="D12" t="n">
-        <v>56.846</v>
+        <v>55.818</v>
       </c>
       <c r="E12" t="n">
-        <v>3.18929553</v>
+        <v>3.224792820000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1163153</v>
+        <v>0.00898761</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06571637000000001</v>
+        <v>0.005091549999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.39689023</v>
+        <v>0.03064861</v>
       </c>
       <c r="I12" t="n">
-        <v>1.532690490653654</v>
+        <v>1.417041992323448</v>
       </c>
       <c r="J12" t="n">
-        <v>15.29209377855538</v>
+        <v>14.13374114092368</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8581139051045921</v>
+        <v>0.8269999832830698</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01456758793102441</v>
+        <v>0.001463349233395391</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01706750892145318</v>
+        <v>0.001717390324599224</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2031138917855777</v>
+        <v>0.01804342584944124</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10.654</v>
+        <v>10.929</v>
       </c>
       <c r="D13" t="n">
-        <v>74.155</v>
+        <v>75.23699999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>2.35904075</v>
+        <v>2.33108665</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01551286</v>
+        <v>0.00538275</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01572982</v>
+        <v>0.005766960000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.17231472</v>
+        <v>0.06761159000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>3.126989296761673</v>
+        <v>3.428076823921936</v>
       </c>
       <c r="J13" t="n">
-        <v>14.04607657914719</v>
+        <v>14.84166790175909</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4366621609383309</v>
+        <v>0.4461306896167259</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006359856239868303</v>
+        <v>0.0008616292372258745</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006103465512219993</v>
+        <v>0.001616815527773917</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09866405602686965</v>
+        <v>0.04344393973930049</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54.069</v>
+        <v>54.114</v>
       </c>
       <c r="D2" t="n">
-        <v>54.069</v>
+        <v>54.114</v>
       </c>
       <c r="E2" t="n">
-        <v>3.17825061</v>
+        <v>3.16948242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00133787</v>
+        <v>0.00135841</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07169933000000001</v>
+        <v>0.07295569</v>
       </c>
       <c r="H2" t="n">
-        <v>3.90818598</v>
+        <v>3.97650341</v>
       </c>
       <c r="I2" t="n">
-        <v>7.01023411751579</v>
+        <v>6.551482727285933</v>
       </c>
       <c r="J2" t="n">
-        <v>7.01023411751579</v>
+        <v>6.551482727285933</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4138050426220387</v>
+        <v>0.3907925152580654</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001462147114412289</v>
+        <v>0.0001665157632159772</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007553342586917089</v>
+        <v>0.008893789057972293</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8345269440073902</v>
+        <v>0.8448462905931474</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>90.059</v>
+        <v>90.295</v>
       </c>
       <c r="D3" t="n">
-        <v>90.059</v>
+        <v>90.295</v>
       </c>
       <c r="E3" t="n">
-        <v>1.91107263</v>
+        <v>1.904231</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009027800000000001</v>
+        <v>0.000943</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08052294</v>
+        <v>0.08433705000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314089279999999</v>
+        <v>7.67577954</v>
       </c>
       <c r="I3" t="n">
-        <v>12.08642215879458</v>
+        <v>11.89283037861107</v>
       </c>
       <c r="J3" t="n">
-        <v>12.08642215879458</v>
+        <v>11.89283037861107</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2625993418524205</v>
+        <v>0.2527369708595069</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001330374780675377</v>
+        <v>0.0001822350394671936</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01143470110434662</v>
+        <v>0.01559989991233196</v>
       </c>
       <c r="N3" t="n">
-        <v>1.735984363536182</v>
+        <v>2.005840126932154</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.046</v>
+        <v>27.812</v>
       </c>
       <c r="D4" t="n">
-        <v>54.078</v>
+        <v>55.605</v>
       </c>
       <c r="E4" t="n">
-        <v>3.25338949</v>
+        <v>3.104128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00252739</v>
+        <v>0.00264691</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03362475000000001</v>
+        <v>0.0365285</v>
       </c>
       <c r="H4" t="n">
-        <v>0.93228702</v>
+        <v>1.03036605</v>
       </c>
       <c r="I4" t="n">
-        <v>5.543339481992115</v>
+        <v>4.142924066383527</v>
       </c>
       <c r="J4" t="n">
-        <v>11.08777952769872</v>
+        <v>8.279222217124053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6504573511170907</v>
+        <v>0.4427500415151439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003879244427375946</v>
+        <v>0.0005123196495580892</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005954293253245564</v>
+        <v>0.007658787474240003</v>
       </c>
       <c r="N4" t="n">
-        <v>0.341152542880503</v>
+        <v>0.3245784489303126</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>48.528</v>
+        <v>46.208</v>
       </c>
       <c r="D5" t="n">
-        <v>94.90900000000001</v>
+        <v>90.684</v>
       </c>
       <c r="E5" t="n">
-        <v>1.83129985</v>
+        <v>1.91382706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00154295</v>
+        <v>0.00166198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03694269</v>
+        <v>0.03787804</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82836536</v>
+        <v>1.78094815</v>
       </c>
       <c r="I5" t="n">
-        <v>8.870394574081802</v>
+        <v>8.199632306998282</v>
       </c>
       <c r="J5" t="n">
-        <v>16.14848266842716</v>
+        <v>15.03117028311768</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3064602012516939</v>
+        <v>0.3118262287250341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001991221914984544</v>
+        <v>0.0002498441548279681</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005546277946782235</v>
+        <v>0.006012809795764376</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5994602327416799</v>
+        <v>0.5670590400082981</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14.412</v>
+        <v>13.787</v>
       </c>
       <c r="D6" t="n">
-        <v>57.596</v>
+        <v>55.081</v>
       </c>
       <c r="E6" t="n">
-        <v>3.12679938</v>
+        <v>3.21703234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00429857</v>
+        <v>0.00435844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01526991</v>
+        <v>0.01488329</v>
       </c>
       <c r="H6" t="n">
-        <v>0.23138585</v>
+        <v>0.21439266</v>
       </c>
       <c r="I6" t="n">
-        <v>3.686983841821096</v>
+        <v>3.259794051356198</v>
       </c>
       <c r="J6" t="n">
-        <v>14.72894177209367</v>
+        <v>13.04640362887979</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7895720725144161</v>
+        <v>0.656420880163054</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005525712534054681</v>
+        <v>0.0006457398441681808</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003552977165510445</v>
+        <v>0.003572530258563019</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1130356410103296</v>
+        <v>0.1058296747381356</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.316</v>
+        <v>24.351</v>
       </c>
       <c r="D7" t="n">
-        <v>93.711</v>
+        <v>90.449</v>
       </c>
       <c r="E7" t="n">
-        <v>1.85902356</v>
+        <v>1.92385209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00289656</v>
+        <v>0.00313757</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01808876</v>
+        <v>0.01886938</v>
       </c>
       <c r="H7" t="n">
-        <v>0.47248698</v>
+        <v>0.4741455</v>
       </c>
       <c r="I7" t="n">
-        <v>5.427116877090229</v>
+        <v>5.201043150162268</v>
       </c>
       <c r="J7" t="n">
-        <v>16.34682530945069</v>
+        <v>15.66961824474151</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3285856557732036</v>
+        <v>0.3288887290705498</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004357433173769148</v>
+        <v>0.000655178642931952</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003690057640171463</v>
+        <v>0.004816035507926994</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1946734041119848</v>
+        <v>0.2096587577418312</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9.064</v>
+        <v>9.026</v>
       </c>
       <c r="D8" t="n">
-        <v>54.302</v>
+        <v>54.047</v>
       </c>
       <c r="E8" t="n">
-        <v>3.30350598</v>
+        <v>3.2465932</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006348029999999999</v>
+        <v>0.00649477</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00951017</v>
+        <v>0.00973795</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09107359</v>
+        <v>0.09139376</v>
       </c>
       <c r="I8" t="n">
-        <v>2.335671072595488</v>
+        <v>1.854929854405488</v>
       </c>
       <c r="J8" t="n">
-        <v>14.01039211039745</v>
+        <v>11.1118073805868</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7884226132480729</v>
+        <v>0.6145973977206909</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001053982304309611</v>
+        <v>0.00153800201472472</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002621400849453115</v>
+        <v>0.002884756439843269</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04945781042690956</v>
+        <v>0.04736172435623935</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -844,43 +844,43 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.99995556</v>
       </c>
       <c r="C9" t="n">
-        <v>17.186</v>
+        <v>16.821</v>
       </c>
       <c r="D9" t="n">
-        <v>87.908</v>
+        <v>86.29600000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>1.98769757</v>
+        <v>2.01509231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00395629</v>
+        <v>0.004107620000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01114935</v>
+        <v>0.01131171</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19931739</v>
+        <v>0.19793911</v>
       </c>
       <c r="I9" t="n">
-        <v>4.144705367403404</v>
+        <v>4.211020267309538</v>
       </c>
       <c r="J9" t="n">
-        <v>16.17173648873432</v>
+        <v>14.80106264615671</v>
       </c>
       <c r="K9" t="n">
-        <v>0.367135147468479</v>
+        <v>0.3395036868161016</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005622669116887282</v>
+        <v>0.000663986455896213</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002346620613948025</v>
+        <v>0.00246834225531821</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08966289475018573</v>
+        <v>0.09679939926366127</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6.952</v>
+        <v>6.91</v>
       </c>
       <c r="D10" t="n">
-        <v>55.473</v>
+        <v>55.089</v>
       </c>
       <c r="E10" t="n">
-        <v>3.24686919</v>
+        <v>3.19726144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00725225</v>
+        <v>0.00728126</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0063133</v>
+        <v>0.00632601</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04701933</v>
+        <v>0.04580960000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>1.849084939940595</v>
+        <v>1.412053077576723</v>
       </c>
       <c r="J10" t="n">
-        <v>14.73880943304117</v>
+        <v>11.23250854654686</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8159965815573966</v>
+        <v>0.662175724919601</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008214411744629697</v>
+        <v>0.0009135220495067073</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001860064447740924</v>
+        <v>0.001703840324605493</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02861437773330331</v>
+        <v>0.02170012876063707</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13.327</v>
+        <v>12.66</v>
       </c>
       <c r="D11" t="n">
-        <v>82.93300000000001</v>
+        <v>80.422</v>
       </c>
       <c r="E11" t="n">
-        <v>2.1126916</v>
+        <v>2.16211396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004690980000000001</v>
+        <v>0.005118800000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007679880000000001</v>
+        <v>0.00795972</v>
       </c>
       <c r="H11" t="n">
-        <v>0.10770843</v>
+        <v>0.10568401</v>
       </c>
       <c r="I11" t="n">
-        <v>3.633631004143689</v>
+        <v>3.356138206877611</v>
       </c>
       <c r="J11" t="n">
-        <v>15.99544827022254</v>
+        <v>13.83876538667476</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4027796196520463</v>
+        <v>0.3621626749625843</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000741127323278065</v>
+        <v>0.0008798775736115477</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001869444947039097</v>
+        <v>0.001979683931861364</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05600667072591354</v>
+        <v>0.05539014756133772</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.6</v>
+        <v>5.608</v>
       </c>
       <c r="D12" t="n">
-        <v>55.818</v>
+        <v>55.843</v>
       </c>
       <c r="E12" t="n">
-        <v>3.224792820000001</v>
+        <v>3.180136210000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00898761</v>
+        <v>0.00949055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005091549999999999</v>
+        <v>0.005367089999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03064861</v>
+        <v>0.03192714999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>1.417041992323448</v>
+        <v>1.275916911073744</v>
       </c>
       <c r="J12" t="n">
-        <v>14.13374114092368</v>
+        <v>12.76625741273958</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8269999832830698</v>
+        <v>0.7060770387562498</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001463349233395391</v>
+        <v>0.001716747628488218</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001717390324599224</v>
+        <v>0.001721453174772097</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01804342584944124</v>
+        <v>0.01763455825424392</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10.929</v>
+        <v>10.617</v>
       </c>
       <c r="D13" t="n">
-        <v>75.23699999999999</v>
+        <v>75.434</v>
       </c>
       <c r="E13" t="n">
-        <v>2.33108665</v>
+        <v>2.31641947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00538275</v>
+        <v>0.00557833</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005766960000000001</v>
+        <v>0.00581731</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06761159000000001</v>
+        <v>0.06624899999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>3.428076823921936</v>
+        <v>3.315615222595092</v>
       </c>
       <c r="J13" t="n">
-        <v>14.84166790175909</v>
+        <v>14.03512125450395</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4461306896167259</v>
+        <v>0.4230620195136572</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0008616292372258745</v>
+        <v>0.0009005373276986239</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001616815527773917</v>
+        <v>0.001655029542541971</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04344393973930049</v>
+        <v>0.04440052480999975</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.99995556</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>16.821</v>

--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54.069</v>
+        <v>54.114</v>
       </c>
       <c r="D2" t="n">
-        <v>54.069</v>
+        <v>54.114</v>
       </c>
       <c r="E2" t="n">
-        <v>3.17825061</v>
+        <v>3.16948242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00133787</v>
+        <v>0.00135841</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07169933000000001</v>
+        <v>0.07295569</v>
       </c>
       <c r="H2" t="n">
-        <v>3.90818598</v>
+        <v>3.97650341</v>
       </c>
       <c r="I2" t="n">
-        <v>7.01023411751579</v>
+        <v>6.551482727285933</v>
       </c>
       <c r="J2" t="n">
-        <v>7.01023411751579</v>
+        <v>6.551482727285933</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4138050426220387</v>
+        <v>0.3907925152580654</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001462147114412289</v>
+        <v>0.0001665157632159772</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007553342586917089</v>
+        <v>0.008893789057972293</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8345269440073902</v>
+        <v>0.8448462905931474</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>90.059</v>
+        <v>90.295</v>
       </c>
       <c r="D3" t="n">
-        <v>90.059</v>
+        <v>90.295</v>
       </c>
       <c r="E3" t="n">
-        <v>1.91107263</v>
+        <v>1.904231</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009027800000000001</v>
+        <v>0.000943</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08052294</v>
+        <v>0.08433705000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314089279999999</v>
+        <v>7.67577954</v>
       </c>
       <c r="I3" t="n">
-        <v>12.08642215879458</v>
+        <v>11.89283037861107</v>
       </c>
       <c r="J3" t="n">
-        <v>12.08642215879458</v>
+        <v>11.89283037861107</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2625993418524205</v>
+        <v>0.2527369708595069</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001330374780675377</v>
+        <v>0.0001822350394671936</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01143470110434662</v>
+        <v>0.01559989991233196</v>
       </c>
       <c r="N3" t="n">
-        <v>1.735984363536182</v>
+        <v>2.005840126932154</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.046</v>
+        <v>27.812</v>
       </c>
       <c r="D4" t="n">
-        <v>54.078</v>
+        <v>55.605</v>
       </c>
       <c r="E4" t="n">
-        <v>3.25338949</v>
+        <v>3.104128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00252739</v>
+        <v>0.00264691</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03362475000000001</v>
+        <v>0.0365285</v>
       </c>
       <c r="H4" t="n">
-        <v>0.93228702</v>
+        <v>1.03036605</v>
       </c>
       <c r="I4" t="n">
-        <v>5.543339481992115</v>
+        <v>4.142924066383527</v>
       </c>
       <c r="J4" t="n">
-        <v>11.08777952769872</v>
+        <v>8.279222217124053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6504573511170907</v>
+        <v>0.4427500415151439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003879244427375946</v>
+        <v>0.0005123196495580892</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005954293253245564</v>
+        <v>0.007658787474240003</v>
       </c>
       <c r="N4" t="n">
-        <v>0.341152542880503</v>
+        <v>0.3245784489303126</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>48.528</v>
+        <v>46.208</v>
       </c>
       <c r="D5" t="n">
-        <v>94.90900000000001</v>
+        <v>90.684</v>
       </c>
       <c r="E5" t="n">
-        <v>1.83129985</v>
+        <v>1.91382706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00154295</v>
+        <v>0.00166198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03694269</v>
+        <v>0.03787804</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82836536</v>
+        <v>1.78094815</v>
       </c>
       <c r="I5" t="n">
-        <v>8.870394574081802</v>
+        <v>8.199632306998282</v>
       </c>
       <c r="J5" t="n">
-        <v>16.14848266842716</v>
+        <v>15.03117028311768</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3064602012516939</v>
+        <v>0.3118262287250341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001991221914984544</v>
+        <v>0.0002498441548279681</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005546277946782235</v>
+        <v>0.006012809795764376</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5994602327416799</v>
+        <v>0.5670590400082981</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14.412</v>
+        <v>13.787</v>
       </c>
       <c r="D6" t="n">
-        <v>57.596</v>
+        <v>55.081</v>
       </c>
       <c r="E6" t="n">
-        <v>3.12679938</v>
+        <v>3.21703234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00429857</v>
+        <v>0.00435844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01526991</v>
+        <v>0.01488329</v>
       </c>
       <c r="H6" t="n">
-        <v>0.23138585</v>
+        <v>0.21439266</v>
       </c>
       <c r="I6" t="n">
-        <v>3.686983841821096</v>
+        <v>3.259794051356198</v>
       </c>
       <c r="J6" t="n">
-        <v>14.72894177209367</v>
+        <v>13.04640362887979</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7895720725144161</v>
+        <v>0.656420880163054</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005525712534054681</v>
+        <v>0.0006457398441681808</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003552977165510445</v>
+        <v>0.003572530258563019</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1130356410103296</v>
+        <v>0.1058296747381356</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.316</v>
+        <v>24.351</v>
       </c>
       <c r="D7" t="n">
-        <v>93.711</v>
+        <v>90.449</v>
       </c>
       <c r="E7" t="n">
-        <v>1.85902356</v>
+        <v>1.92385209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00289656</v>
+        <v>0.00313757</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01808876</v>
+        <v>0.01886938</v>
       </c>
       <c r="H7" t="n">
-        <v>0.47248698</v>
+        <v>0.4741455</v>
       </c>
       <c r="I7" t="n">
-        <v>5.427116877090229</v>
+        <v>5.201043150162268</v>
       </c>
       <c r="J7" t="n">
-        <v>16.34682530945069</v>
+        <v>15.66961824474151</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3285856557732036</v>
+        <v>0.3288887290705498</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004357433173769148</v>
+        <v>0.000655178642931952</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003690057640171463</v>
+        <v>0.004816035507926994</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1946734041119848</v>
+        <v>0.2096587577418312</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9.064</v>
+        <v>9.026</v>
       </c>
       <c r="D8" t="n">
-        <v>54.302</v>
+        <v>54.047</v>
       </c>
       <c r="E8" t="n">
-        <v>3.30350598</v>
+        <v>3.2465932</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006348029999999999</v>
+        <v>0.00649477</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00951017</v>
+        <v>0.00973795</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09107359</v>
+        <v>0.09139376</v>
       </c>
       <c r="I8" t="n">
-        <v>2.335671072595488</v>
+        <v>1.854929854405488</v>
       </c>
       <c r="J8" t="n">
-        <v>14.01039211039745</v>
+        <v>11.1118073805868</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7884226132480729</v>
+        <v>0.6145973977206909</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001053982304309611</v>
+        <v>0.00153800201472472</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002621400849453115</v>
+        <v>0.002884756439843269</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04945781042690956</v>
+        <v>0.04736172435623935</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17.186</v>
+        <v>16.821</v>
       </c>
       <c r="D9" t="n">
-        <v>87.908</v>
+        <v>86.29600000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>1.98769757</v>
+        <v>2.01509231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00395629</v>
+        <v>0.004107620000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01114935</v>
+        <v>0.01131171</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19931739</v>
+        <v>0.19793911</v>
       </c>
       <c r="I9" t="n">
-        <v>4.144705367403404</v>
+        <v>4.211020267309538</v>
       </c>
       <c r="J9" t="n">
-        <v>16.17173648873432</v>
+        <v>14.80106264615671</v>
       </c>
       <c r="K9" t="n">
-        <v>0.367135147468479</v>
+        <v>0.3395036868161016</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005622669116887282</v>
+        <v>0.000663986455896213</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002346620613948025</v>
+        <v>0.00246834225531821</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08966289475018573</v>
+        <v>0.09679939926366127</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6.952</v>
+        <v>6.91</v>
       </c>
       <c r="D10" t="n">
-        <v>55.473</v>
+        <v>55.089</v>
       </c>
       <c r="E10" t="n">
-        <v>3.24686919</v>
+        <v>3.19726144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00725225</v>
+        <v>0.00728126</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0063133</v>
+        <v>0.00632601</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04701933</v>
+        <v>0.04580960000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>1.849084939940595</v>
+        <v>1.412053077576723</v>
       </c>
       <c r="J10" t="n">
-        <v>14.73880943304117</v>
+        <v>11.23250854654686</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8159965815573966</v>
+        <v>0.662175724919601</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008214411744629697</v>
+        <v>0.0009135220495067073</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001860064447740924</v>
+        <v>0.001703840324605493</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02861437773330331</v>
+        <v>0.02170012876063707</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13.327</v>
+        <v>12.66</v>
       </c>
       <c r="D11" t="n">
-        <v>82.93300000000001</v>
+        <v>80.422</v>
       </c>
       <c r="E11" t="n">
-        <v>2.1126916</v>
+        <v>2.16211396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004690980000000001</v>
+        <v>0.005118800000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007679880000000001</v>
+        <v>0.00795972</v>
       </c>
       <c r="H11" t="n">
-        <v>0.10770843</v>
+        <v>0.10568401</v>
       </c>
       <c r="I11" t="n">
-        <v>3.633631004143689</v>
+        <v>3.356138206877611</v>
       </c>
       <c r="J11" t="n">
-        <v>15.99544827022254</v>
+        <v>13.83876538667476</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4027796196520463</v>
+        <v>0.3621626749625843</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000741127323278065</v>
+        <v>0.0008798775736115477</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001869444947039097</v>
+        <v>0.001979683931861364</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05600667072591354</v>
+        <v>0.05539014756133772</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.6</v>
+        <v>5.608</v>
       </c>
       <c r="D12" t="n">
-        <v>55.818</v>
+        <v>55.843</v>
       </c>
       <c r="E12" t="n">
-        <v>3.224792820000001</v>
+        <v>3.180136210000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00898761</v>
+        <v>0.00949055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005091549999999999</v>
+        <v>0.005367089999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03064861</v>
+        <v>0.03192714999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>1.417041992323448</v>
+        <v>1.275916911073744</v>
       </c>
       <c r="J12" t="n">
-        <v>14.13374114092368</v>
+        <v>12.76625741273958</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8269999832830698</v>
+        <v>0.7060770387562498</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001463349233395391</v>
+        <v>0.001716747628488218</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001717390324599224</v>
+        <v>0.001721453174772097</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01804342584944124</v>
+        <v>0.01763455825424392</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10.929</v>
+        <v>10.617</v>
       </c>
       <c r="D13" t="n">
-        <v>75.23699999999999</v>
+        <v>75.434</v>
       </c>
       <c r="E13" t="n">
-        <v>2.33108665</v>
+        <v>2.31641947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00538275</v>
+        <v>0.00557833</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005766960000000001</v>
+        <v>0.00581731</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06761159000000001</v>
+        <v>0.06624899999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>3.428076823921936</v>
+        <v>3.315615222595092</v>
       </c>
       <c r="J13" t="n">
-        <v>14.84166790175909</v>
+        <v>14.03512125450395</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4461306896167259</v>
+        <v>0.4230620195136572</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0008616292372258745</v>
+        <v>0.0009005373276986239</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001616815527773917</v>
+        <v>0.001655029542541971</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04344393973930049</v>
+        <v>0.04440052480999975</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>58.421</v>
+        <v>54.114</v>
       </c>
       <c r="D2" t="n">
-        <v>58.421</v>
+        <v>54.114</v>
       </c>
       <c r="E2" t="n">
-        <v>2.94122374</v>
+        <v>3.16948242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11142111</v>
+        <v>0.00135841</v>
       </c>
       <c r="G2" t="n">
-        <v>6.40288149</v>
+        <v>0.07295569</v>
       </c>
       <c r="H2" t="n">
-        <v>373.98178118</v>
+        <v>3.97650341</v>
       </c>
       <c r="I2" t="n">
-        <v>7.373203043665835</v>
+        <v>6.551482727285933</v>
       </c>
       <c r="J2" t="n">
-        <v>7.373203043665835</v>
+        <v>6.551482727285933</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3918216010559735</v>
+        <v>0.3907925152580654</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01734967871804892</v>
+        <v>0.0001665157632159772</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5502426597222885</v>
+        <v>0.008893789057972293</v>
       </c>
       <c r="N2" t="n">
-        <v>55.91611202929847</v>
+        <v>0.8448462905931474</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>89.736</v>
+        <v>90.295</v>
       </c>
       <c r="D3" t="n">
-        <v>89.736</v>
+        <v>90.295</v>
       </c>
       <c r="E3" t="n">
-        <v>1.91739599</v>
+        <v>1.904231</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07670151</v>
+        <v>0.000943</v>
       </c>
       <c r="G3" t="n">
-        <v>6.78317677</v>
+        <v>0.08433705000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>610.8127203800001</v>
+        <v>7.67577954</v>
       </c>
       <c r="I3" t="n">
-        <v>11.91361566604523</v>
+        <v>11.89283037861107</v>
       </c>
       <c r="J3" t="n">
-        <v>11.91361566604523</v>
+        <v>11.89283037861107</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2619929481594976</v>
+        <v>0.2527369708595069</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01149236735086497</v>
+        <v>0.0001822350394671936</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6792581408243431</v>
+        <v>0.01559989991233196</v>
       </c>
       <c r="N3" t="n">
-        <v>114.4994539192471</v>
+        <v>2.005840126932154</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.954</v>
+        <v>27.812</v>
       </c>
       <c r="D4" t="n">
-        <v>55.882</v>
+        <v>55.605</v>
       </c>
       <c r="E4" t="n">
-        <v>3.15244247</v>
+        <v>3.104128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.18660024</v>
+        <v>0.00264691</v>
       </c>
       <c r="G4" t="n">
-        <v>2.53737894</v>
+        <v>0.0365285</v>
       </c>
       <c r="H4" t="n">
-        <v>71.83620431</v>
+        <v>1.03036605</v>
       </c>
       <c r="I4" t="n">
-        <v>5.666921386255327</v>
+        <v>4.142924066383527</v>
       </c>
       <c r="J4" t="n">
-        <v>11.34454824022423</v>
+        <v>8.279222217124053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6551305560596927</v>
+        <v>0.4427500415151439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03669149879503734</v>
+        <v>0.0005123196495580892</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3919814959048554</v>
+        <v>0.007658787474240003</v>
       </c>
       <c r="N4" t="n">
-        <v>21.28889590035775</v>
+        <v>0.3245784489303126</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>47.826</v>
+        <v>46.208</v>
       </c>
       <c r="D5" t="n">
-        <v>93.66</v>
+        <v>90.684</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8502017</v>
+        <v>1.91382706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11951621</v>
+        <v>0.00166198</v>
       </c>
       <c r="G5" t="n">
-        <v>2.79238079</v>
+        <v>0.03787804</v>
       </c>
       <c r="H5" t="n">
-        <v>134.33426993</v>
+        <v>1.78094815</v>
       </c>
       <c r="I5" t="n">
-        <v>8.327729286850952</v>
+        <v>8.199632306998282</v>
       </c>
       <c r="J5" t="n">
-        <v>14.95018086539116</v>
+        <v>15.03117028311768</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2956567250592869</v>
+        <v>0.3118262287250341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0221001546413384</v>
+        <v>0.0002498441548279681</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3614862467633796</v>
+        <v>0.006012809795764376</v>
       </c>
       <c r="N5" t="n">
-        <v>33.534404364962</v>
+        <v>0.5670590400082981</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14.756</v>
+        <v>13.787</v>
       </c>
       <c r="D6" t="n">
-        <v>58.978</v>
+        <v>55.081</v>
       </c>
       <c r="E6" t="n">
-        <v>3.05277461</v>
+        <v>3.21703234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.23574164</v>
+        <v>0.00435844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8456443100000001</v>
+        <v>0.01488329</v>
       </c>
       <c r="H6" t="n">
-        <v>12.93354327</v>
+        <v>0.21439266</v>
       </c>
       <c r="I6" t="n">
-        <v>3.751604795089501</v>
+        <v>3.259794051356198</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00161873147577</v>
+        <v>13.04640362887979</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7691440996159444</v>
+        <v>0.656420880163054</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06326126338570512</v>
+        <v>0.0006457398441681808</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2371911856015121</v>
+        <v>0.003572530258563019</v>
       </c>
       <c r="N6" t="n">
-        <v>6.212888359056365</v>
+        <v>0.1058296747381356</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.281</v>
+        <v>24.351</v>
       </c>
       <c r="D7" t="n">
-        <v>93.52800000000001</v>
+        <v>90.449</v>
       </c>
       <c r="E7" t="n">
-        <v>1.86241174</v>
+        <v>1.92385209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.16292624</v>
+        <v>0.00313757</v>
       </c>
       <c r="G7" t="n">
-        <v>1.00181138</v>
+        <v>0.01886938</v>
       </c>
       <c r="H7" t="n">
-        <v>25.66063576</v>
+        <v>0.4741455</v>
       </c>
       <c r="I7" t="n">
-        <v>5.225260026289825</v>
+        <v>5.201043150162268</v>
       </c>
       <c r="J7" t="n">
-        <v>16.18941979545015</v>
+        <v>15.66961824474151</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3301064286189955</v>
+        <v>0.3288887290705498</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03710943644055155</v>
+        <v>0.000655178642931952</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1950750737072204</v>
+        <v>0.004816035507926994</v>
       </c>
       <c r="N7" t="n">
-        <v>8.607412685903103</v>
+        <v>0.2096587577418312</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9.385</v>
+        <v>9.026</v>
       </c>
       <c r="D8" t="n">
-        <v>56.214</v>
+        <v>54.047</v>
       </c>
       <c r="E8" t="n">
-        <v>3.19849113</v>
+        <v>3.2465932</v>
       </c>
       <c r="F8" t="n">
-        <v>0.27131443</v>
+        <v>0.00649477</v>
       </c>
       <c r="G8" t="n">
-        <v>0.41613435</v>
+        <v>0.00973795</v>
       </c>
       <c r="H8" t="n">
-        <v>4.070704539999999</v>
+        <v>0.09139376</v>
       </c>
       <c r="I8" t="n">
-        <v>2.443510946516456</v>
+        <v>1.854929854405488</v>
       </c>
       <c r="J8" t="n">
-        <v>14.67029043411961</v>
+        <v>11.1118073805868</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7831420678884002</v>
+        <v>0.6145973977206909</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08210360423089114</v>
+        <v>0.00153800201472472</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1450668131519251</v>
+        <v>0.002884756439843269</v>
       </c>
       <c r="N8" t="n">
-        <v>2.221703299735914</v>
+        <v>0.04736172435623935</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17.275</v>
+        <v>16.821</v>
       </c>
       <c r="D9" t="n">
-        <v>88.268</v>
+        <v>86.29600000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>1.98547842</v>
+        <v>2.01509231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17286799</v>
+        <v>0.004107620000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.48189639</v>
+        <v>0.01131171</v>
       </c>
       <c r="H9" t="n">
-        <v>8.538840759999999</v>
+        <v>0.19793911</v>
       </c>
       <c r="I9" t="n">
-        <v>4.257405371878569</v>
+        <v>4.211020267309538</v>
       </c>
       <c r="J9" t="n">
-        <v>16.84547256523087</v>
+        <v>14.80106264615671</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3835273681684761</v>
+        <v>0.3395036868161016</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04436952219214739</v>
+        <v>0.000663986455896213</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1188358353462049</v>
+        <v>0.00246834225531821</v>
       </c>
       <c r="N9" t="n">
-        <v>3.785142394448388</v>
+        <v>0.09679939926366127</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6.839</v>
+        <v>6.91</v>
       </c>
       <c r="D10" t="n">
-        <v>54.599</v>
+        <v>55.089</v>
       </c>
       <c r="E10" t="n">
-        <v>3.28494497</v>
+        <v>3.19726144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24731958</v>
+        <v>0.00728126</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2117835</v>
+        <v>0.00632601</v>
       </c>
       <c r="H10" t="n">
-        <v>1.53689199</v>
+        <v>0.04580960000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>1.73841913849943</v>
+        <v>1.412053077576723</v>
       </c>
       <c r="J10" t="n">
-        <v>13.90365097772921</v>
+        <v>11.23250854654686</v>
       </c>
       <c r="K10" t="n">
-        <v>0.795263536203071</v>
+        <v>0.662175724919601</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08011993747379241</v>
+        <v>0.0009135220495067073</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09005140704320205</v>
+        <v>0.001703840324605493</v>
       </c>
       <c r="N10" t="n">
-        <v>0.970451232026567</v>
+        <v>0.02170012876063707</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13.396</v>
+        <v>12.66</v>
       </c>
       <c r="D11" t="n">
-        <v>82.779</v>
+        <v>80.422</v>
       </c>
       <c r="E11" t="n">
-        <v>2.11495167</v>
+        <v>2.16211396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1563644</v>
+        <v>0.005118800000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25371109</v>
+        <v>0.00795972</v>
       </c>
       <c r="H11" t="n">
-        <v>3.546879979999999</v>
+        <v>0.10568401</v>
       </c>
       <c r="I11" t="n">
-        <v>3.783582891849933</v>
+        <v>3.356138206877611</v>
       </c>
       <c r="J11" t="n">
-        <v>15.71391377366206</v>
+        <v>13.83876538667476</v>
       </c>
       <c r="K11" t="n">
-        <v>0.399856002964089</v>
+        <v>0.3621626749625843</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04286552614831611</v>
+        <v>0.0008798775736115477</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07577188831599005</v>
+        <v>0.001979683931861364</v>
       </c>
       <c r="N11" t="n">
-        <v>2.081288556471711</v>
+        <v>0.05539014756133772</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.648</v>
+        <v>5.608</v>
       </c>
       <c r="D12" t="n">
-        <v>56.229</v>
+        <v>55.843</v>
       </c>
       <c r="E12" t="n">
-        <v>3.20841419</v>
+        <v>3.180136210000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.22296463</v>
+        <v>0.00949055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.12865917</v>
+        <v>0.005367089999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7916509599999999</v>
+        <v>0.03192714999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>1.490072587599784</v>
+        <v>1.275916911073744</v>
       </c>
       <c r="J12" t="n">
-        <v>14.78022374708901</v>
+        <v>12.76625741273958</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8251420677408827</v>
+        <v>0.7060770387562498</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07602515965628658</v>
+        <v>0.001716747628488218</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06378650906225743</v>
+        <v>0.001721453174772097</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5961162616030753</v>
+        <v>0.01763455825424392</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10.715</v>
+        <v>10.617</v>
       </c>
       <c r="D13" t="n">
-        <v>75.508</v>
+        <v>75.434</v>
       </c>
       <c r="E13" t="n">
-        <v>2.31892486</v>
+        <v>2.31641947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13912661</v>
+        <v>0.00557833</v>
       </c>
       <c r="G13" t="n">
-        <v>0.14540667</v>
+        <v>0.00581731</v>
       </c>
       <c r="H13" t="n">
-        <v>1.63893001</v>
+        <v>0.06624899999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>3.019750634389186</v>
+        <v>3.315615222595092</v>
       </c>
       <c r="J13" t="n">
-        <v>14.24959602890506</v>
+        <v>14.03512125450395</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4431373888389101</v>
+        <v>0.4230620195136572</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03938322665233829</v>
+        <v>0.0009005373276986239</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04765479951408701</v>
+        <v>0.001655029542541971</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9543881149747753</v>
+        <v>0.04440052480999975</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>
